--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CamposDev\Workspace-Github\ParkingGarageProject\ProjectPlanningDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matts\Desktop\Java\ParkingGarageProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D415644-FC38-47F1-87B3-5503C22D99CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1EA433-277B-4738-BF3B-40B1E95F1F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Class/Design of Project</t>
   </si>
@@ -68,9 +68,6 @@
     <t>LoginPane</t>
   </si>
   <si>
-    <t>ListViewOpenTickets(gui)</t>
-  </si>
-  <si>
     <t>3 hours</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>ImgUtil</t>
   </si>
   <si>
-    <t>585 minutes</t>
-  </si>
-  <si>
     <t>CheckInPane (Extends TabPane?)</t>
   </si>
   <si>
@@ -129,13 +123,28 @@
   </si>
   <si>
     <t>JUnit Test Methods</t>
+  </si>
+  <si>
+    <t>Javadoc work</t>
+  </si>
+  <si>
+    <t>~100</t>
+  </si>
+  <si>
+    <t>&gt;600 minutes</t>
+  </si>
+  <si>
+    <t>ListViewOccupiedSpaces(gui) *</t>
+  </si>
+  <si>
+    <t>*- Not doing 'open' tickets.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,16 +203,40 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,11 +244,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,8 +294,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -268,13 +326,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>106679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -289,8 +347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6926580" y="304800"/>
-          <a:ext cx="2095500" cy="685800"/>
+          <a:off x="6743700" y="306704"/>
+          <a:ext cx="2049780" cy="874395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -684,21 +742,22 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.109375" style="2"/>
-    <col min="8" max="8" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,8 +773,8 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
@@ -726,8 +785,8 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1"/>
@@ -738,8 +797,8 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1"/>
@@ -750,8 +809,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1"/>
@@ -762,8 +821,8 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1"/>
@@ -774,8 +833,8 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1"/>
@@ -786,8 +845,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1"/>
@@ -798,7 +857,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -810,9 +869,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>60</v>
@@ -822,9 +881,9 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>60</v>
@@ -834,9 +893,9 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>60</v>
@@ -846,23 +905,25 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>120</v>
@@ -872,45 +933,45 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
         <v>180</v>
@@ -919,26 +980,26 @@
         <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
         <v>90</v>
@@ -947,55 +1008,64 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>700</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matts\Desktop\Java\ParkingGarageProject\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CamposDev\Workspace-Github\ParkingGarageProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1EA433-277B-4738-BF3B-40B1E95F1F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBB154B-5483-422B-9253-A17B711EDBFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,15 +113,9 @@
     <t>LightWork</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;------this number is a blantant lie, but not really</t>
-  </si>
-  <si>
     <t>InsertUserPane</t>
   </si>
   <si>
-    <t>460 minutes</t>
-  </si>
-  <si>
     <t>JUnit Test Methods</t>
   </si>
   <si>
@@ -138,70 +132,25 @@
   </si>
   <si>
     <t>*- Not doing 'open' tickets.</t>
+  </si>
+  <si>
+    <t>490 minutes</t>
+  </si>
+  <si>
+    <t>700 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u val="double"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -217,8 +166,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +190,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE20000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -262,42 +237,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -308,6 +271,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE20000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -739,333 +707,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="48.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="3"/>
+    <col min="8" max="8" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>90</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>90</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>30</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B18" s="3">
+        <v>180</v>
+      </c>
+      <c r="C18" s="3">
+        <v>120</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>120</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1">
-        <v>180</v>
-      </c>
-      <c r="C18" s="1">
-        <v>120</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>90</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <v>700</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>28</v>
+      <c r="D27" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CamposDev\Workspace-Github\ParkingGarageProject\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBB154B-5483-422B-9253-A17B711EDBFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{75AB7D64-D88C-489C-843E-BA019B6C18D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="23280" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -709,23 +705,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.44140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="3"/>
-    <col min="8" max="8" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="3" max="3" width="18.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -739,7 +735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -756,7 +752,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -764,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -772,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -780,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -788,7 +784,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -796,7 +792,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -804,7 +800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -812,7 +808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -820,7 +816,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -828,7 +824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -842,7 +838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -850,7 +846,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -858,7 +854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -866,7 +862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -874,7 +870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -888,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -896,7 +892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -907,7 +903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -915,7 +911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -926,7 +922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -934,7 +930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -942,7 +938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -950,7 +946,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>36</v>
       </c>

--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{75AB7D64-D88C-489C-843E-BA019B6C18D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamposDev\Workspace-Github\CSE248\ParkingGarageProject\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238CB454-CFC9-462A-9D13-052C8506D729}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="23280" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -67,9 +64,6 @@
     <t>3 hours</t>
   </si>
   <si>
-    <t>MenuBar</t>
-  </si>
-  <si>
     <t xml:space="preserve">HistoryPane (gui) </t>
   </si>
   <si>
@@ -134,6 +128,9 @@
   </si>
   <si>
     <t>700 minutes</t>
+  </si>
+  <si>
+    <t>GarageMenuBar</t>
   </si>
 </sst>
 </file>
@@ -705,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +799,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <v>60</v>
@@ -810,7 +807,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
         <v>60</v>
@@ -818,7 +815,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3">
         <v>60</v>
@@ -826,7 +823,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3">
         <v>45</v>
@@ -835,12 +832,12 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3">
         <v>120</v>
@@ -848,31 +845,31 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3">
         <v>180</v>
@@ -886,15 +883,15 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3">
         <v>90</v>
@@ -905,7 +902,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>20</v>
@@ -913,18 +910,18 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3">
         <v>30</v>
@@ -932,15 +929,15 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3">
         <v>120</v>
@@ -948,13 +945,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{75AB7D64-D88C-489C-843E-BA019B6C18D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7CC39811-F34D-4F19-AFDA-DCDB2F6F845B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="23280" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +206,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -236,7 +242,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,6 +263,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -705,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +902,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="3">

--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7CC39811-F34D-4F19-AFDA-DCDB2F6F845B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamposDev\Workspace-Github\CSE248\ParkingGarageProject\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C9C12F-7355-48FB-A482-9C5F39496B1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="23280" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -100,12 +97,6 @@
     <t>ImgUtil</t>
   </si>
   <si>
-    <t>CheckInPane (Extends TabPane?)</t>
-  </si>
-  <si>
-    <t>CheckOutPane(extends Tab)</t>
-  </si>
-  <si>
     <t>LightWork</t>
   </si>
   <si>
@@ -134,6 +125,12 @@
   </si>
   <si>
     <t>700 minutes</t>
+  </si>
+  <si>
+    <t>CheckInPane</t>
+  </si>
+  <si>
+    <t>CheckOutPane</t>
   </si>
 </sst>
 </file>
@@ -714,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +799,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3">
@@ -810,8 +807,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>28</v>
+      <c r="A10" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="3">
         <v>60</v>
@@ -819,7 +816,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3">
         <v>60</v>
@@ -827,7 +824,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3">
         <v>60</v>
@@ -835,7 +832,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3">
         <v>45</v>
@@ -844,7 +841,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,7 +878,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3">
         <v>180</v>
@@ -941,15 +938,15 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>120</v>
@@ -957,13 +954,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamposDev\Workspace-Github\CSE248\ParkingGarageProject\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matts\Desktop\Java\ParkingGarageProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C9C12F-7355-48FB-A482-9C5F39496B1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FAB5D3-6B10-4D19-86EF-9098A74BACF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,6 +263,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -711,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +886,7 @@
       <c r="B18" s="3">
         <v>180</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="9">
         <v>120</v>
       </c>
       <c r="D18" s="3" t="s">

--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matts\Desktop\Java\ParkingGarageProject\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamposDev\Workspace-Github\CSE248\ParkingGarageProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FAB5D3-6B10-4D19-86EF-9098A74BACF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3543883C-C945-4F13-BC27-AB3431D1CC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,12 +187,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -205,7 +199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +233,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,13 +253,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -715,7 +706,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +793,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3">
@@ -810,7 +801,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3">
@@ -818,7 +809,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="3">
@@ -826,7 +817,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="3">
@@ -848,7 +839,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
@@ -880,13 +871,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3">
         <v>180</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>120</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -913,7 +904,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="3">
@@ -921,7 +912,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="3">
@@ -932,7 +923,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="3">
@@ -948,7 +939,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3">

--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamposDev\Workspace-Github\CSE248\ParkingGarageProject\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3543883C-C945-4F13-BC27-AB3431D1CC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A87CD4A9-3CC7-4B58-810D-BF4DFD118285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21630" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -253,10 +249,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -705,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +789,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3">
@@ -801,7 +797,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3">
@@ -809,7 +805,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="3">
@@ -817,7 +813,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="3">
@@ -828,7 +824,7 @@
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -839,7 +835,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
@@ -877,7 +873,7 @@
       <c r="B18" s="3">
         <v>180</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>120</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -893,7 +889,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="3">
@@ -904,7 +900,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="3">
@@ -912,7 +908,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="3">
@@ -923,7 +919,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="3">
@@ -934,7 +930,7 @@
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
     </row>

--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A87CD4A9-3CC7-4B58-810D-BF4DFD118285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C8E124E9-28A9-4F26-8325-D45379CDDFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21630" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21660" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Class/Design of Project</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>CheckOutPane</t>
+  </si>
+  <si>
+    <t>Debugging GUI merge with backcode + General Debugging</t>
+  </si>
+  <si>
+    <t>120 (General DB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reworking UML Class Diagram </t>
+  </si>
+  <si>
+    <t>30 minutes</t>
   </si>
 </sst>
 </file>
@@ -699,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +889,7 @@
         <v>120</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,22 +946,44 @@
         <v>29</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45</v>
+      </c>
+    </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>33</v>
       </c>
     </row>

--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -3,20 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C8E124E9-28A9-4F26-8325-D45379CDDFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamposDev\Workspace-Github\CSE248\ParkingGarageProject\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCC5AAB-A223-47BF-B18E-9E1BF77D8E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21660" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Class/Design of Project</t>
   </si>
@@ -118,9 +129,6 @@
   </si>
   <si>
     <t>490 minutes</t>
-  </si>
-  <si>
-    <t>700 minutes</t>
   </si>
   <si>
     <t>CheckInPane</t>
@@ -176,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +219,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -241,7 +255,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,6 +279,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -713,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +835,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3">
         <v>60</v>
@@ -826,7 +843,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3">
         <v>60</v>
@@ -883,13 +900,13 @@
         <v>27</v>
       </c>
       <c r="B18" s="3">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="C18" s="8">
         <v>120</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,22 +956,25 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="9" t="s">
         <v>28</v>
+      </c>
+      <c r="B24" s="3">
+        <v>120</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>37</v>
+      <c r="A25" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B25" s="3">
         <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="3">
         <v>45</v>
@@ -962,7 +982,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3">
         <v>45</v>
@@ -973,12 +993,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>34</v>
+      <c r="B28" s="3">
+        <f>SUM(B3:B27)</f>
+        <v>660</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>30</v>

--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamposDev\Workspace-Github\CSE248\ParkingGarageProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCC5AAB-A223-47BF-B18E-9E1BF77D8E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA36A25-347E-4A06-837F-364EB28E6D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Class/Design of Project</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Space (holds Vehicle and d)</t>
   </si>
   <si>
-    <t>~30</t>
-  </si>
-  <si>
     <t>Parking Lot (array of Space) ArrayList</t>
   </si>
   <si>
@@ -68,27 +65,15 @@
     <t>LoginPane</t>
   </si>
   <si>
-    <t>3 hours</t>
-  </si>
-  <si>
-    <t>MenuBar</t>
-  </si>
-  <si>
     <t xml:space="preserve">HistoryPane (gui) </t>
   </si>
   <si>
-    <t>20minutes</t>
-  </si>
-  <si>
     <t>History Data (Day Logs) - LinkedList&lt;T&gt; (.data files)</t>
   </si>
   <si>
     <t>UserData</t>
   </si>
   <si>
-    <t>20 minutes</t>
-  </si>
-  <si>
     <t>Save Data (Parking Spaces + Users + Invoices)</t>
   </si>
   <si>
@@ -116,21 +101,12 @@
     <t>Javadoc work</t>
   </si>
   <si>
-    <t>~100</t>
-  </si>
-  <si>
-    <t>&gt;600 minutes</t>
-  </si>
-  <si>
     <t>ListViewOccupiedSpaces(gui) *</t>
   </si>
   <si>
     <t>*- Not doing 'open' tickets.</t>
   </si>
   <si>
-    <t>490 minutes</t>
-  </si>
-  <si>
     <t>CheckInPane</t>
   </si>
   <si>
@@ -140,20 +116,38 @@
     <t>Debugging GUI merge with backcode + General Debugging</t>
   </si>
   <si>
-    <t>120 (General DB)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reworking UML Class Diagram </t>
   </si>
   <si>
-    <t>30 minutes</t>
+    <t>GarageMenuBar</t>
+  </si>
+  <si>
+    <t>LoginButton</t>
+  </si>
+  <si>
+    <t>ViewGarageButton</t>
+  </si>
+  <si>
+    <t>DeleteUserDialog</t>
+  </si>
+  <si>
+    <t>MainMenuPane</t>
+  </si>
+  <si>
+    <t>MainStage</t>
+  </si>
+  <si>
+    <t>UserDataViewer</t>
+  </si>
+  <si>
+    <t>&lt;---- (Minutes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +177,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,12 +201,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -275,13 +271,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -728,18 +724,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" style="3" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="3"/>
     <col min="8" max="8" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -747,7 +743,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -764,46 +760,46 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+      <c r="C2" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>30</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>90</v>
@@ -811,39 +807,39 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>12</v>
+      <c r="A9" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>26</v>
+      <c r="A10" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
+      <c r="A11" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>35</v>
+      <c r="A12" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="3">
         <v>60</v>
@@ -851,21 +847,21 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6">
         <v>45</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
+      <c r="D13" s="3">
+        <v>180</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
+      <c r="A14" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B14" s="3">
         <v>120</v>
@@ -873,53 +869,53 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>27</v>
+      <c r="A18" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="3">
         <v>60</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>120</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
+      <c r="D18" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
         <v>20</v>
       </c>
-      <c r="D19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="C20" s="3">
         <v>90</v>
@@ -929,52 +925,49 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>22</v>
+      <c r="A21" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B21" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="B22" s="3">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="B24" s="3">
         <v>120</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>29</v>
+      <c r="C24" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>36</v>
+      <c r="A25" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B25" s="3">
         <v>50</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>37</v>
+      <c r="C25" s="3">
+        <v>120</v>
       </c>
       <c r="D25" s="3">
         <v>45</v>
@@ -982,30 +975,83 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
+      <c r="A27" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B27" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B28" s="3">
-        <f>SUM(B3:B27)</f>
-        <v>660</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="B30" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <f>SUM(B2:B33)</f>
+        <v>940</v>
+      </c>
+      <c r="C34" s="3">
+        <f>SUM(C2:C33)</f>
+        <v>850</v>
+      </c>
+      <c r="D34" s="3">
+        <f>SUM(D2:D33)</f>
+        <v>435</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamposDev\Workspace-Github\CSE248\ParkingGarageProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA36A25-347E-4A06-837F-364EB28E6D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF05F7A-A6D0-46A4-BB35-C023B6179127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Class/Design of Project</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Michael Campos</t>
   </si>
   <si>
-    <t>Matthew Guidi</t>
-  </si>
-  <si>
     <t>Chris Demonte</t>
   </si>
   <si>
@@ -140,14 +137,20 @@
     <t>UserDataViewer</t>
   </si>
   <si>
-    <t>&lt;---- (Minutes)</t>
+    <t>Matt Guidi</t>
+  </si>
+  <si>
+    <t>Work Time (Minutes)</t>
+  </si>
+  <si>
+    <t>Name:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,20 +173,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="double"/>
-      <sz val="11"/>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -222,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -245,39 +269,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -310,14 +352,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>106679</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660918</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>103219</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -332,8 +374,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6743700" y="306704"/>
-          <a:ext cx="2049780" cy="874395"/>
+          <a:off x="7633996" y="427419"/>
+          <a:ext cx="2065953" cy="900443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -724,334 +766,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="1" max="1" width="63.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3">
-        <v>30</v>
+      <c r="B9" s="2">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <f>SUM(B2:B33)</f>
+        <v>910</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6">
-        <v>45</v>
-      </c>
-      <c r="D13" s="3">
-        <v>180</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3">
-        <v>60</v>
-      </c>
-      <c r="C18" s="7">
-        <v>120</v>
-      </c>
-      <c r="D18" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3">
-        <v>90</v>
-      </c>
-      <c r="D20" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>120</v>
-      </c>
-      <c r="C24" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3">
-        <v>50</v>
-      </c>
-      <c r="C25" s="3">
-        <v>120</v>
-      </c>
-      <c r="D25" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
-        <f>SUM(B2:B33)</f>
-        <v>940</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="G10" s="2">
         <f>SUM(C2:C33)</f>
         <v>850</v>
       </c>
-      <c r="D34" s="3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
         <f>SUM(D2:D33)</f>
-        <v>435</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>37</v>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2">
+        <v>180</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2">
+        <v>60</v>
+      </c>
+      <c r="C18" s="9">
+        <v>120</v>
+      </c>
+      <c r="D18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2">
+        <v>90</v>
+      </c>
+      <c r="D20" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>90</v>
+      </c>
+      <c r="C24" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2">
+        <v>120</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/doc/GroupPlan.xlsx
+++ b/doc/GroupPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CamposDev\Workspace-Github\CSE248\ParkingGarageProject\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CamposDev\Workspace-Github\ParkingGarageProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF05F7A-A6D0-46A4-BB35-C023B6179127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9B6C3A-9B3A-4448-838B-7D352E9CC49C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Class/Design of Project</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Name:</t>
+  </si>
+  <si>
+    <t>Alert making and error handling</t>
   </si>
 </sst>
 </file>
@@ -290,7 +293,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,6 +323,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -766,26 +772,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="3" customWidth="1"/>
     <col min="6" max="6" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -807,7 +813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -816,7 +822,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -824,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -832,7 +838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -840,7 +846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -848,13 +854,16 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>90</v>
       </c>
+      <c r="D8" s="2">
+        <v>30</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
@@ -862,7 +871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -877,7 +886,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -888,11 +897,11 @@
         <v>36</v>
       </c>
       <c r="G10" s="2">
-        <f>SUM(C2:C33)</f>
-        <v>850</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM(C2:C40)</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -904,10 +913,10 @@
       </c>
       <c r="G11" s="2">
         <f>SUM(D2:D33)</f>
-        <v>475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -915,7 +924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -929,7 +938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
@@ -937,31 +946,31 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
@@ -975,15 +984,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
@@ -994,23 +1003,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
@@ -1028,8 +1040,11 @@
       <c r="C24" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
@@ -1043,7 +1058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -1051,7 +1066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>19</v>
       </c>
@@ -1059,7 +1074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
@@ -1067,7 +1082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>31</v>
       </c>
@@ -1075,7 +1090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>32</v>
       </c>
@@ -1083,7 +1098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>33</v>
       </c>
@@ -1091,7 +1106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
@@ -1099,12 +1114,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="2">
         <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="7">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
